--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value814.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value814.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.315160283818343</v>
+        <v>2.193424463272095</v>
       </c>
       <c r="B1">
-        <v>3.136843924476764</v>
+        <v>4.489976406097412</v>
       </c>
       <c r="C1">
-        <v>2.071376157352332</v>
+        <v>0.3004874587059021</v>
       </c>
       <c r="D1">
-        <v>1.801571935148586</v>
+        <v>0.19061279296875</v>
       </c>
       <c r="E1">
-        <v>1.743164482484795</v>
+        <v>0.2627407014369965</v>
       </c>
     </row>
   </sheetData>
